--- a/errortable.xlsx
+++ b/errortable.xlsx
@@ -411,16 +411,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00420467803338865</v>
+        <v>0.00398266910282922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00530085685394802</v>
+        <v>0.00785681736559336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00448634066884124</v>
+        <v>0.0104273663933421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00396654198252758</v>
+        <v>0.0158841336288587</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00342930998249692</v>
+        <v>0.00432602517712391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00350724060770002</v>
+        <v>0.00926719879264177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00341396009955731</v>
+        <v>0.0134272567821153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00349874349264092</v>
+        <v>0.020500936095288</v>
       </c>
     </row>
     <row r="4">
@@ -445,16 +445,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00397060232394386</v>
+        <v>0.00445792615385859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00385999886252588</v>
+        <v>0.00902030014224136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00460259837878422</v>
+        <v>0.013225223981969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0040938636550095</v>
+        <v>0.0234972023687653</v>
       </c>
     </row>
     <row r="5">
@@ -462,16 +462,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00374158586812904</v>
+        <v>0.00389970656331685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00338965019382791</v>
+        <v>0.00810626785778267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00462342405139305</v>
+        <v>0.012207492593656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00414948638140259</v>
+        <v>0.022961550256437</v>
       </c>
     </row>
     <row r="6">
@@ -479,16 +479,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00338624228515408</v>
+        <v>0.00471290424869249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00366261480597574</v>
+        <v>0.0103844841389856</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00408710850660852</v>
+        <v>0.0146926284705245</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00354438560509934</v>
+        <v>0.0210866654462284</v>
       </c>
     </row>
     <row r="7">
@@ -496,16 +496,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00345748935009271</v>
+        <v>0.00394917284225563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00360674165996706</v>
+        <v>0.00877811476869421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00370239638221015</v>
+        <v>0.0138636753129854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00354194305194424</v>
+        <v>0.0187006231244465</v>
       </c>
     </row>
     <row r="8">
@@ -513,16 +513,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00306265815746143</v>
+        <v>0.00709599625633621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00327252464565503</v>
+        <v>0.0114833478044548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00340012748613143</v>
+        <v>0.0145897037710874</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00335296609115069</v>
+        <v>0.0186226921641586</v>
       </c>
     </row>
     <row r="9">
@@ -530,16 +530,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00331596616537153</v>
+        <v>0.00957084820862203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00376455378595264</v>
+        <v>0.010597032637297</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00381502154323635</v>
+        <v>0.0135193185206926</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00344944121056535</v>
+        <v>0.0199939397970616</v>
       </c>
     </row>
     <row r="10">
@@ -547,16 +547,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00307814830628729</v>
+        <v>0.00541466431143762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00344391876518569</v>
+        <v>0.0096298614512202</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00340457270122735</v>
+        <v>0.0118188108868169</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00330711805389405</v>
+        <v>0.0179838049387874</v>
       </c>
     </row>
     <row r="11">
@@ -564,16 +564,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00273349659164007</v>
+        <v>0.00652134656908273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00296143789662496</v>
+        <v>0.0106749691698212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00318084973566205</v>
+        <v>0.0131388883023336</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00311129852104766</v>
+        <v>0.0172391819667269</v>
       </c>
     </row>
   </sheetData>
@@ -612,16 +612,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00333558088916124</v>
+        <v>0.0032664953767861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00406123907352061</v>
+        <v>0.00643390225168109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00359637558637667</v>
+        <v>0.00841437755412618</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00325251342196651</v>
+        <v>0.0127330897675364</v>
       </c>
     </row>
     <row r="3">
@@ -629,16 +629,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00281024873303177</v>
+        <v>0.00356117096030027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00276647922679199</v>
+        <v>0.00763788896239703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00268558845804192</v>
+        <v>0.0103080350913219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00295183224835181</v>
+        <v>0.0146933111987327</v>
       </c>
     </row>
     <row r="4">
@@ -646,16 +646,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00311541259651449</v>
+        <v>0.00352850024829074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00307969605349011</v>
+        <v>0.00701779560457471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0036503651678812</v>
+        <v>0.00989067919564553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00326861495382625</v>
+        <v>0.0164190383004781</v>
       </c>
     </row>
     <row r="5">
@@ -663,16 +663,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00298223031425692</v>
+        <v>0.00318073316103975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002801930818455</v>
+        <v>0.00648093306264878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00362957574993714</v>
+        <v>0.00895040619462733</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00327577032565195</v>
+        <v>0.0161833923059359</v>
       </c>
     </row>
     <row r="6">
@@ -680,16 +680,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00276115569710425</v>
+        <v>0.00373711157730748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00306019496746849</v>
+        <v>0.00774429231701122</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00324517686576651</v>
+        <v>0.0105533828335658</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00283214803897242</v>
+        <v>0.0147577795597302</v>
       </c>
     </row>
     <row r="7">
@@ -697,16 +697,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00282179537422037</v>
+        <v>0.00316252166559459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00295643997209439</v>
+        <v>0.00682327376887714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00296460936712599</v>
+        <v>0.00951553094274287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00283331882424419</v>
+        <v>0.0135876389777675</v>
       </c>
     </row>
     <row r="8">
@@ -714,16 +714,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00246398870661377</v>
+        <v>0.00519626782535348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00264960898695324</v>
+        <v>0.00822123092469659</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00272109101374896</v>
+        <v>0.0110089034938278</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00262902492639488</v>
+        <v>0.0139650907283376</v>
       </c>
     </row>
     <row r="9">
@@ -731,16 +731,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00267280656956769</v>
+        <v>0.00757960510055037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00291690452696345</v>
+        <v>0.00837725974564305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00307510224160054</v>
+        <v>0.0103428114952029</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00282702955533529</v>
+        <v>0.014785335998636</v>
       </c>
     </row>
     <row r="10">
@@ -748,16 +748,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00245411128331545</v>
+        <v>0.00420362695570729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00275844622776829</v>
+        <v>0.00703988759761488</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00274211666880752</v>
+        <v>0.0090186754616852</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00266163336056548</v>
+        <v>0.0135635682565971</v>
       </c>
     </row>
     <row r="11">
@@ -765,16 +765,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00222129726054782</v>
+        <v>0.00491151907008494</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00237002049609058</v>
+        <v>0.00798612716713771</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00254795152220086</v>
+        <v>0.0101776138054719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0024130426816649</v>
+        <v>0.0128891939118517</v>
       </c>
     </row>
   </sheetData>
